--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -326,35 +326,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道卫安装平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recadas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B100SP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_PL_V100R001B002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>四月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道卫安装平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recadas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_V100R001B103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW_CA_V100R001B103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RW_CA_SU_V200R001B108</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B109</t>
   </si>
   <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V200R001B108</t>
+    <t>RW_CA_SU_V200R003B100SP01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,11 +456,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V200R003B100SP01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW_CA_V100R001B106SP01</t>
+    <t>RW_CA_V100R001B101</t>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP03</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B107SP01</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,31 +481,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_V100R001B106SP02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>RecadasServer_v1.1.0-alpha</t>
+  </si>
+  <si>
+    <t>RecadasServer_v1.0.1-alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecadasServer_v1.0.0-alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,15 +496,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_PL_V100R001B002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>APP_1.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,20 +686,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,14 +1159,15 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A20"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
@@ -1153,8 +1237,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1207,8 +1291,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1232,8 +1316,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1257,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1282,10 +1366,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>15</v>
@@ -1307,11 +1391,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5">
@@ -1334,11 +1418,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>35</v>
+      <c r="A10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -1363,10 +1447,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1384,14 +1468,14 @@
         <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -1406,17 +1490,17 @@
         <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
@@ -1438,10 +1522,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5">
         <v>11</v>
@@ -1456,23 +1540,23 @@
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="5">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1481,25 +1565,25 @@
         <v>8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -1508,17 +1592,17 @@
         <v>5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
@@ -1533,19 +1617,19 @@
         <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="5">
         <v>14</v>
@@ -1560,17 +1644,17 @@
         <v>5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="5">
         <v>11</v>
@@ -1585,19 +1669,19 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="5">
         <v>31</v>
@@ -1612,137 +1696,299 @@
         <v>17</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5.13</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>14.04</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="5">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9.08</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="5">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1753,7 +1999,7 @@
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1764,7 +2010,7 @@
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1775,7 +2021,7 @@
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1786,7 +2032,7 @@
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1797,7 +2043,7 @@
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1808,7 +2054,7 @@
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1816,10 +2062,10 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1827,10 +2073,10 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1838,10 +2084,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1849,10 +2095,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1860,10 +2106,10 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1872,15 +2118,18 @@
       <c r="I43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -502,13 +502,94 @@
   <si>
     <t>调试APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B111</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP04</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B101SP01</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecadasServer_v1.1.1-alpha</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recadas（P023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recadas（P200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B001</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B001SP01</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V410R004B001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +656,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -661,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +771,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,11 +786,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,18 +1256,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
@@ -1208,10 +1308,10 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1237,8 +1337,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1262,10 +1362,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1291,8 +1391,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1316,8 +1416,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1341,8 +1441,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1366,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1491,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1418,10 +1518,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1447,8 +1547,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1472,8 +1572,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1497,8 +1597,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1522,8 +1622,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
@@ -1547,8 +1647,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1572,8 +1672,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1599,8 +1699,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1624,8 +1724,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1651,8 +1751,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
         <v>51</v>
       </c>
@@ -1676,7 +1776,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1703,10 +1803,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1732,8 +1832,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
@@ -1757,8 +1857,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
@@ -1782,8 +1882,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>66</v>
       </c>
@@ -1807,8 +1907,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
@@ -1832,8 +1932,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1857,8 +1957,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
         <v>72</v>
       </c>
@@ -1882,8 +1982,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1909,8 +2009,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="6" t="s">
         <v>76</v>
       </c>
@@ -1934,8 +2034,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1959,7 +2059,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
@@ -1986,108 +2086,244 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="13">
+        <v>7</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="13">
+        <v>6</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="13">
+        <v>33</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.33</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13">
+        <v>8</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="13">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="13">
+        <v>18</v>
+      </c>
+      <c r="E37" s="13">
+        <v>5.71</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>11</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>2</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="13">
+        <v>5</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1.67</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>2</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="13">
+        <v>8</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>4</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2098,7 +2334,7 @@
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2109,7 +2345,7 @@
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2117,8 +2353,45 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A32:A40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>

--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="139">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -556,40 +556,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Recadas（P200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B001</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B001SP01</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V410R004B001</t>
+  </si>
+  <si>
+    <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Recadas（P023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Recadas（P023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Recadas（P200）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>运营平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B112</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_SW_V200R001B111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_FW_V200R001B110SP01</t>
   </si>
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V410R001B001</t>
-  </si>
-  <si>
-    <t>RW_CA_SU_V410R001B001SP01</t>
+    <t>RW_CA_V410R004B001SP01</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_V410R004B001</t>
+    <t>V1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>RW_CA_V410R004B002</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B002</t>
+  </si>
+  <si>
+    <t>八月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recadas（P023）</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP09</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B103</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B102</t>
+  </si>
+  <si>
+    <t>调试APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +800,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -683,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -706,50 +852,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,37 +874,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,18 +1356,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
@@ -1308,1101 +1408,1564 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>6.5</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <v>16</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="9">
         <v>11.23</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <v>0.5</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>24</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>15</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>5</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
         <v>8</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
         <v>8</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>5</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="9">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>14</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>5</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="9">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>7</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="9">
         <v>31</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="9">
         <v>2.5</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="9">
         <v>11</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="9">
         <v>5.13</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>6</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="9">
         <v>13</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="9">
         <v>9</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="9">
         <v>3.78</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="9">
         <v>4</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="9">
         <v>11</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="9">
         <v>4</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <v>4</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="9">
         <v>37</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="9">
         <v>14.04</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="9">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="9">
         <v>18</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="9">
         <v>9.08</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="9">
         <v>4</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="9">
         <v>15</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="9">
         <v>2.67</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="9">
         <v>1</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <v>2</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="8">
         <v>7</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <v>7</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <v>1</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="8">
         <v>6</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <v>1</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
-      <c r="B35" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="B35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="8">
         <v>33</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="8">
         <v>2.33</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="8">
         <v>2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="8">
         <v>8</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>3</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="D36" s="13">
-        <v>5</v>
-      </c>
-      <c r="E36" s="13">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>3</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="B37" s="11"/>
+      <c r="C37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="8">
         <v>18</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="8">
         <v>5.71</v>
       </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <v>11</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
         <v>3</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <v>2</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="8">
         <v>5</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="8">
         <v>1.67</v>
       </c>
-      <c r="F39" s="13">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
         <v>2</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="8">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>4</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="13">
+      <c r="I40" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="8">
+        <v>17</v>
+      </c>
+      <c r="E41" s="8">
+        <v>23.73</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="8">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="8">
+        <v>11</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="8">
+        <v>6</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="8">
+        <v>15</v>
+      </c>
+      <c r="E43" s="8">
+        <v>8.48</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="8">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="8">
+        <v>4</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="8">
+        <v>31</v>
+      </c>
+      <c r="E45" s="8">
+        <v>5.59</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="8">
+        <v>11</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="8">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="8">
+        <v>22</v>
+      </c>
+      <c r="E47" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="8">
+        <v>18</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="8">
+        <v>25</v>
+      </c>
+      <c r="E48" s="8">
+        <v>8.33</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="8">
+        <v>12</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="8">
+        <v>7</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="8">
+        <v>5</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="8">
+        <v>6</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="8">
+        <v>20</v>
+      </c>
+      <c r="E53" s="8">
+        <v>5.61</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="7">
+        <v>14</v>
+      </c>
+      <c r="E54" s="7">
+        <v>8.83</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="7">
         <v>8</v>
       </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="H54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="7">
+        <v>16</v>
+      </c>
+      <c r="E55" s="7">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="7">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="7">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="7">
         <v>4</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="H56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="7">
+        <v>15</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2.54</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="7">
+        <v>5</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="7">
+        <v>11</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="7">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -643,7 +643,7 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -656,7 +656,7 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RW_CA_SU_V410R001B002</t>
@@ -714,6 +714,22 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,28 +796,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -813,6 +808,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -858,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,31 +873,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,18 +1346,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
@@ -1378,1572 +1368,1612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>6.5</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>11.23</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>8</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>8</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>6</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>14</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>11</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>31</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>2.5</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>11</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>5.13</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>6</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>13</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>9</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>3.78</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>11</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
         <v>2</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>4</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <v>4</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>37</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>14.04</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>3</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>18</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>9.08</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>4</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>15</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>2.67</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>2</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>7</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
         <v>7</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>6</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>33</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>2.33</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>8</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
         <v>3</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>18</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <v>5.71</v>
       </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
         <v>11</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>3</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>5</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <v>1.67</v>
       </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>2</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>8</v>
       </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
         <v>4</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>17</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="6">
         <v>23.73</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>11</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="8" t="s">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>11</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>4.04</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>6</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8" t="s">
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>15</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>8.48</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="6">
         <v>6</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8" t="s">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>7</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="6">
         <v>4.3</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>4</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <v>31</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <v>5.59</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="6">
         <v>11</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8" t="s">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <v>9</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="6">
         <v>3.97</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>1</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <v>22</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="6">
         <v>7.85</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="6">
         <v>18</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>25</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="6">
         <v>8.33</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="6">
         <v>1</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8" t="s">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
         <v>12</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="6">
         <v>1.22</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="6">
         <v>1</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8" t="s">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <v>7</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="6">
         <v>5</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="8" t="s">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="6">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="6">
         <v>0.96</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="6">
         <v>1</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="8" t="s">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="6">
         <v>6</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="6">
         <v>2</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="6">
         <v>20</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="6">
         <v>5.61</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="6">
         <v>6</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>14</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>8.83</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>8</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>16</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>9.2899999999999991</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>11</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="7" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>10</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>2.7</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>4</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>15</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>2.54</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>5</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>11</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>1.68</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>7</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>1.77</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>1</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>2</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>2.57</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7" t="s">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="6">
+        <v>21</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="6">
+        <v>3</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B28:B30"/>
@@ -2955,17 +2985,6 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A48:A60"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -717,19 +717,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>九月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B113</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B104</t>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B114</t>
+  </si>
+  <si>
+    <t>Recadas</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B003</t>
+  </si>
+  <si>
+    <t>十月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recadas（P023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B106SP10</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B114</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B103</t>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B116</t>
+  </si>
+  <si>
+    <t>P200</t>
+  </si>
+  <si>
+    <t>RW_CA_V410R004B003</t>
   </si>
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>V1.4.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -854,13 +902,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,13 +964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,11 +1440,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,1606 +1462,1945 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>6.5</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>16</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>11.23</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>0.5</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>24</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>15</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>4</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <v>5</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>6</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>14</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>5</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>11</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>7</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>31</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
         <v>17</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>2.5</v>
       </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>11</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>5.13</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
         <v>6</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>13</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>3.78</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>4</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>11</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
         <v>2</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>4</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
         <v>4</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>37</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>14.04</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>3</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>18</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>9.08</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>3</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>15</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>2.67</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <v>2</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>7</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
         <v>7</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>1</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="7">
         <v>1</v>
       </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>33</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>2.33</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>8</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="7">
         <v>5</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="7">
         <v>1</v>
       </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
         <v>3</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>18</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>5.71</v>
       </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
         <v>11</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>1.67</v>
       </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>8</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
         <v>4</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>17</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>23.73</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="7">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>11</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>4.04</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>6</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="7">
         <v>15</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="7">
         <v>8.48</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>6</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="7">
         <v>7</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="7">
         <v>4.3</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>4</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="7">
         <v>31</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>5.59</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>11</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>9</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="7">
         <v>3.97</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="7">
         <v>22</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="7">
         <v>7.85</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>18</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="7">
         <v>25</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>8.33</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>12</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>1.22</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="7">
         <v>7</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>5</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="7">
         <v>3</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>0.96</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="7">
         <v>6</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>2</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="7">
         <v>20</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="7">
         <v>5.61</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>6</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="7">
         <v>14</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="7">
         <v>8.83</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>8</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="7">
         <v>16</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="7">
         <v>11</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="7">
         <v>10</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="7">
         <v>2.7</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="7">
         <v>4</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="7">
         <v>15</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="7">
         <v>2.54</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>5</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="7">
         <v>11</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <v>1.68</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="7">
         <v>7</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="7">
         <v>1.77</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="7">
         <v>1</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="7">
         <v>2</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>2.57</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6" t="s">
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="7">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="7">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="7">
+        <v>13</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1.72</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="7">
+        <v>5</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="7">
+        <v>10</v>
+      </c>
+      <c r="E63" s="7">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="7">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7">
+        <v>4.21</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="7">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="7">
+        <v>4</v>
+      </c>
+      <c r="E65" s="7">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="7">
+        <v>2</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="7">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7">
+        <v>8.92</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="7">
+        <v>21</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="G67" s="7">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="7">
+        <v>8</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="10"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="7">
+        <v>15</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="7">
+        <v>15</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="10"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="7">
+        <v>2</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="10"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="7">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="7">
+        <v>8</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="10"/>
+      <c r="B73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="7">
+        <v>11</v>
+      </c>
+      <c r="E73" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="7">
+        <v>4</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="6">
-        <v>21</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="6">
-        <v>3</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>142</v>
+      <c r="C74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="7">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B10:B15"/>
+  <mergeCells count="27">
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A61:A67"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A48:A60"/>
     <mergeCell ref="B48:B52"/>
@@ -2985,6 +3418,11 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/月度bug数据统计——车载线.xlsx
+++ b/月度bug数据统计——车载线.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="181">
   <si>
     <t>月份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -643,7 +643,7 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -656,7 +656,7 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RW_CA_SU_V410R001B002</t>
@@ -778,6 +778,84 @@
   </si>
   <si>
     <t>V1.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V110R004B007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V110R004B008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B104</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B116</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B117</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B118</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B110</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B111</t>
+  </si>
+  <si>
+    <t>RW_CA_SW_V100R001B118</t>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B118</t>
+  </si>
+  <si>
+    <t>RW_CA_V200R001B115</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B005</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R001B006</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B002SP01</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B004</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,15 +913,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -862,6 +931,12 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -945,11 +1020,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -958,28 +1030,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,134 +1394,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,1967 +1533,2399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>6.5</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>11.23</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>24</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>8</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>8</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>14</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>7</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>31</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>17</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>2.5</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>11</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>5.13</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>6</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>13</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>9</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>3.78</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
         <v>2</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>4</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <v>4</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>37</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>14.04</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>3</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>18</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>9.08</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>4</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>15</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>2.67</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>2</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>7</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
         <v>7</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>6</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>33</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>2.33</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>8</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>18</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>5.71</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
         <v>11</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>3</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>5</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>1.67</v>
       </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>2</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>8</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
         <v>4</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>17</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>23.73</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>11</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>11</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>4.04</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>6</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>15</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>8.48</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>6</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>7</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>4.3</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>4</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>31</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>5.59</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>11</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>9</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>3.97</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>1</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>22</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>7.85</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>18</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>25</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>8.33</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>1</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7" t="s">
+    <row r="49" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>12</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>1.22</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>1</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="7" t="s">
+    <row r="50" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>7</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>5</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7" t="s">
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>3</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>0.96</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>1</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>6</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>2</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>20</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>5.61</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>6</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>14</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>8.83</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>8</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>16</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>9.2899999999999991</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>11</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>10</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>2.7</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>4</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>15</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>2.54</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>5</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>11</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>1.68</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>7</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>1.77</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>1</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>2</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>2.57</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7" t="s">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>2</v>
       </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>2</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>13</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>1.72</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>5</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>10</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>9.9700000000000006</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>5</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>8</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>4.21</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>7</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>4</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>17.059999999999999</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>2</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7" t="s">
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>4</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>8.92</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <v>1</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7" t="s">
+    </row>
+    <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>21</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>0.67</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <v>3</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>8</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>1.53</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7" t="s">
+    <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>2</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>3.25</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <v>1</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7" t="s">
+    <row r="70" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>15</v>
       </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <v>15</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7" t="s">
+    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>5</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>1.43</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <v>2</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7" t="s">
+    <row r="72" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>8</v>
       </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="6">
         <v>8</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="7" t="s">
+    <row r="73" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9"/>
+      <c r="B73" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>11</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <v>4.3</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <v>4</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
-      <c r="B74" s="7" t="s">
+    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="10"/>
+      <c r="B74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>9</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>1.37</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="6" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="75" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="13">
+        <v>3</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="13">
+        <v>3</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="13">
+        <v>5</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="13">
+        <v>3</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="14">
+        <v>6</v>
+      </c>
+      <c r="E78" s="14">
+        <v>11.99</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="13">
+        <v>3</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="14">
+        <v>12</v>
+      </c>
+      <c r="E79" s="14">
+        <v>6.84</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="13">
+        <v>4</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="14">
+        <v>5</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1.907</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="14">
+        <v>1</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="14">
+        <v>5</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1.026</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="14">
+        <v>2</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="14">
+        <v>4</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="14">
+        <v>4</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="14">
+        <v>2</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="14">
+        <v>2</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="15"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="14">
+        <v>7</v>
+      </c>
+      <c r="E84" s="14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="14">
+        <v>4</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="15"/>
+      <c r="B85" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="14">
+        <v>7</v>
+      </c>
+      <c r="E85" s="14">
+        <v>3.78</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="14">
+        <v>2</v>
+      </c>
+      <c r="E86" s="14">
+        <v>5.16</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="14">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="14">
+        <v>3</v>
+      </c>
+      <c r="E87" s="14">
+        <v>6.06</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="14">
+        <v>1</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="15"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="14">
+        <v>7</v>
+      </c>
+      <c r="E88" s="14">
+        <v>9.11</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="14">
+        <v>3</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="15"/>
+      <c r="B89" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4</v>
+      </c>
+      <c r="E89" s="7">
+        <v>5</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="7">
+        <v>3</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="15"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="7">
+        <v>2</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="17"/>
+      <c r="B91" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="7">
+        <v>8</v>
+      </c>
+      <c r="E91" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" s="7">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A61:A67"/>
+  <mergeCells count="31">
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A48:A60"/>
     <mergeCell ref="B48:B52"/>
@@ -3417,12 +3942,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A75:A91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
